--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_59.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_59.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kyosuke Fujita</t>
+          <t>Ryosuke Saito</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kyosuke Fujita</t>
+          <t>Ryosuke Saito</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kyosuke Fujita</t>
+          <t>Ryosuke Saito</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Kyosuke Fujita</t>
+          <t>Ryosuke Saito</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kyosuke Fujita</t>
+          <t>Ryosuke Saito</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kyosuke Fujita</t>
+          <t>Ryosuke Saito</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kyosuke Fujita</t>
+          <t>Ryosuke Saito</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kyosuke Fujita</t>
+          <t>Ryosuke Saito</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kyosuke Fujita</t>
+          <t>Ryosuke Saito</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kyosuke Fujita</t>
+          <t>Ryosuke Saito</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kyosuke Fujita</t>
+          <t>Ryosuke Saito</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Kyosuke Fujita</t>
+          <t>Ryosuke Saito</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kyosuke Fujita</t>
+          <t>Ryosuke Saito</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kyosuke Fujita</t>
+          <t>Ryosuke Saito</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kyosuke Fujita</t>
+          <t>Ryosuke Saito</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
